--- a/JumpCloud Homework.xlsx
+++ b/JumpCloud Homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Candy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3485AE-06F6-4306-82C8-DFFAFDBBFF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A1F77-4C9F-486B-884A-1891EAE29ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B58170D-4758-4D1F-9B4D-80DE487225A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8B58170D-4758-4D1F-9B4D-80DE487225A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="129">
   <si>
     <t>Verify program computes password hash within 5 seconds</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>Verify new job returns different hash for a new password</t>
-  </si>
-  <si>
-    <t>Verify program can process multiple connections simultaneously</t>
-  </si>
-  <si>
-    <t>Verify in flight password hashing complete before shutdown</t>
-  </si>
-  <si>
-    <t>Verify new requests are rejected during shutdown</t>
   </si>
   <si>
     <t>Preconditions</t>
@@ -198,7 +189,230 @@
     <t>2. Open application that gives a detailed listing of all TCP and UDP endpoints on your system, such as TCPViewer</t>
   </si>
   <si>
-    <t>1. In Powershell run the following command with different passwords to generate multiple simultaneous connections simultaneously 
+    <t>Multiple simultaneous connections to port 8088 with the same create time</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>1. Open 2 Powershell windows</t>
+  </si>
+  <si>
+    <t>2. In the first Powershell window type the following command, but do not run it
+curl -X POST -d 'shutdown' http://127.0.0.1:8088/hash</t>
+  </si>
+  <si>
+    <t>4. In the second Powershell window run the command in step 3, wait 2 seconds and initiate the shutdown in the first Powershell window</t>
+  </si>
+  <si>
+    <t>The program allows all connections generated in step 4 to complete</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>Verify shutdown</t>
+  </si>
+  <si>
+    <t>1. In Powershell run the following command
+curl -X POST -d 'shutdown' http://127.0.0.1:8088/hash</t>
+  </si>
+  <si>
+    <t>Program gives a 200 Empty Response and shuts down</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>Homework.ps1 Powershell script is available</t>
+  </si>
+  <si>
+    <t>3. In the second Powershell window navigate to the directory containing the Homework.ps1 script</t>
+  </si>
+  <si>
+    <t>4. In the second Powershell window type the following command but do not run it
+./Homework.ps1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application allowed the first 10 requests to finish, closed the connection and refused the second 10 requests. </t>
+  </si>
+  <si>
+    <t>5. In the second Powershell window run the command in step 4, wait 2 seconds and initiate the shutdown in the first Powershell window</t>
+  </si>
+  <si>
+    <t>Note: Homework.ps1 Powershell script requests 10 new jobs, pauses for 2 seconds and requests an additional 10 new jobs</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>Verify program accepts an alphanumeric password and returns a job identifier</t>
+  </si>
+  <si>
+    <t>1. In Powershell run the following command: 
+curl -X POST -H "application/json" -d '{\"password\":\"&lt;password&gt;\"}' http://127.0.0.1:8088/hash
+where &lt;password&gt; = password input
+For example:
+curl -X POST -H "application/json" -d '{\"password\":\"AngryMonkey01\"}' http://127.0.0.1:8088/hash</t>
+  </si>
+  <si>
+    <t>Verify program accepts a password that contains special characters and returns a job identifier</t>
+  </si>
+  <si>
+    <t>1. In Powershell generate a job id for a password that contains special charaters, refer to TC002
+For example:
+curl -X POST -H "application/json" -d '{\"password\":\"@ngryM0nk3y!\"}' http://127.0.0.1:8088/hash</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>1. Run program to compute the password has for the job id generated in step 1, refer to TC004</t>
+  </si>
+  <si>
+    <t>2. Run program to compute the password hash for the job id generated in step 1, refer to TC004</t>
+  </si>
+  <si>
+    <t>3. In the second Powershell window type the command to generate multiple connections simultaneously, refer to TC011, but do not run it</t>
+  </si>
+  <si>
+    <t>Testing is being done on Windows</t>
+  </si>
+  <si>
+    <t>Powershell 7 or higher is installed</t>
+  </si>
+  <si>
+    <t>Program has been downloaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preconditions: </t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment: </t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Program is downloaded and running in a command prompt</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows -  Received is misspelled in the the shutdown received response </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title: </t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Priority:</t>
+  </si>
+  <si>
+    <t>Severity:</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Application to view TCP endpoints is installed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4 </t>
+  </si>
+  <si>
+    <t>Program is downloaded</t>
+  </si>
+  <si>
+    <t>3. Run the program from the command prompt
+For example:
+C:\broken-hashserve\broken-hashserve&gt;broken-hashserve_win.exe &lt;enter&gt;</t>
+  </si>
+  <si>
+    <t>1. Open a command prompt by searching for cmd on the PC
+2. In the command prompt navigate to the location of the downloaded program for Windows
+3. Run the program from the command prompt
+For example:
+C:\broken-hashserve\broken-hashserve&gt;broken-hashserve_win.exe &lt;enter&gt;</t>
+  </si>
+  <si>
+    <t>Program is started without error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malformed Input message is received upon program startup
+Note: program does successfully start </t>
+  </si>
+  <si>
+    <t>In command prompt running the program the user should see 
+Shutdown signal received
+Shutting down</t>
+  </si>
+  <si>
+    <t>In command prompt running the program the user sees:
+Malformed Input
+Shutdown signal received
+Shutting down</t>
+  </si>
+  <si>
+    <t>In command prompt running the program the user should see: 
+Shutdown signal received</t>
+  </si>
+  <si>
+    <t>This assumes the program including a 2 charater padding is OK</t>
+  </si>
+  <si>
+    <t>This assumes the user will know that on Windows they cannot use certain special characters such as / as it will return Malformed Input</t>
+  </si>
+  <si>
+    <t>This assumes that in Windows returning to the prompt without error is indicative of an empty response and the actual 200 is not displayed</t>
+  </si>
+  <si>
+    <t>1. In Powershell run the following command with a data input:
+curl -X POST -d 'shutdown' http://127.0.0.1:8088/hash
+2. Navigate to the command promt where the program is running</t>
+  </si>
+  <si>
+    <t>Windows -  Receving 'Malformed Input' response when starting the program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows -  Receving 'Malformed Input' response when stopping the program </t>
+  </si>
+  <si>
+    <t>In command prompt running the program the user sees:
+Shutdown signal recieved</t>
+  </si>
+  <si>
+    <t>Verify program can process multiple job requests simultaneously</t>
+  </si>
+  <si>
+    <t>Verify in flight job requests complete before shutdown</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Verify program can process multiple password hashes simultaneously</t>
+  </si>
+  <si>
+    <t>1. In Powershell generate multiple job ids, refer to TC011</t>
+  </si>
+  <si>
+    <t>1. In Powershell run the following command with different passwords to generate multiple connections simultaneously 
 @(curl -X POST -H "application/json" -d '{\"password\":\"&lt;password1&gt;\"}' http://127.0.0.1:8088/hash |
  curl -X POST -H "application/json" -d '{\"password\":\"&lt;password2&gt;\"}' http://127.0.0.1:8088/hash |
  curl -X POST -H "application/json" -d '{\"password\":\"&lt;password3&gt;\"}' http://127.0.0.1:8088/hash |
@@ -211,209 +425,63 @@
  curl -X POST -H "application/json" -d '{\"password\":\"angrygibbon\"}' http://127.0.0.1:8088/hash )</t>
   </si>
   <si>
-    <t>Multiple simultaneous connections to port 8088 with the same create time</t>
-  </si>
-  <si>
-    <t>TC011</t>
-  </si>
-  <si>
-    <t>1. Open 2 Powershell windows</t>
-  </si>
-  <si>
-    <t>2. In the first Powershell window type the following command, but do not run it
-curl -X POST -d 'shutdown' http://127.0.0.1:8088/hash</t>
-  </si>
-  <si>
-    <t>4. In the second Powershell window run the command in step 3, wait 2 seconds and initiate the shutdown in the first Powershell window</t>
-  </si>
-  <si>
-    <t>The program allows all connections generated in step 4 to complete</t>
-  </si>
-  <si>
-    <t>TC012</t>
-  </si>
-  <si>
-    <t>Verify shutdown</t>
-  </si>
-  <si>
-    <t>1. In Powershell run the following command
-curl -X POST -d 'shutdown' http://127.0.0.1:8088/hash</t>
-  </si>
-  <si>
-    <t>Program gives a 200 Empty Response and shuts down</t>
-  </si>
-  <si>
-    <t>TC013</t>
-  </si>
-  <si>
-    <t>Homework.ps1 Powershell script is available</t>
-  </si>
-  <si>
-    <t>3. In the second Powershell window navigate to the directory containing the Homework.ps1 script</t>
-  </si>
-  <si>
-    <t>4. In the second Powershell window type the following command but do not run it
-./Homework.ps1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The application allowed the first 10 requests to finish, closed the connection and refused the second 10 requests. </t>
-  </si>
-  <si>
-    <t>5. In the second Powershell window run the command in step 4, wait 2 seconds and initiate the shutdown in the first Powershell window</t>
-  </si>
-  <si>
-    <t>Note: Homework.ps1 Powershell script requests 10 new jobs, pauses for 2 seconds and requests an additional 10 new jobs</t>
-  </si>
-  <si>
-    <t>T003</t>
-  </si>
-  <si>
-    <t>Verify program accepts an alphanumeric password and returns a job identifier</t>
-  </si>
-  <si>
-    <t>1. In Powershell run the following command: 
-curl -X POST -H "application/json" -d '{\"password\":\"&lt;password&gt;\"}' http://127.0.0.1:8088/hash
-where &lt;password&gt; = password input
+    <t>1. In Powershell run the following command with the job numbers generated in step 1 to generate multiple connections simultaneously 
+@(curl -H "application/json" http://127.0.0.1:8088/hash/&lt;job id&gt; |
+curl -H "application/json" http://127.0.0.1:8088/hash/&lt;job id&gt; |
+curl -H "application/json" http://127.0.0.1:8088/hash/&lt;job id&gt; |
+curl -H "application/json" http://127.0.0.1:8088/hash/&lt;job id&gt;)
+where &lt;job id&gt; = unique job id inputs
 For example:
-curl -X POST -H "application/json" -d '{\"password\":\"AngryMonkey01\"}' http://127.0.0.1:8088/hash</t>
-  </si>
-  <si>
-    <t>Verify program accepts a password that contains special characters and returns a job identifier</t>
-  </si>
-  <si>
-    <t>1. In Powershell generate a job id for a password that contains special charaters, refer to TC002
-For example:
-curl -X POST -H "application/json" -d '{\"password\":\"@ngryM0nk3y!\"}' http://127.0.0.1:8088/hash</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>1. Run program to compute the password has for the job id generated in step 1, refer to TC004</t>
-  </si>
-  <si>
-    <t>2. Run program to compute the password hash for the job id generated in step 1, refer to TC004</t>
-  </si>
-  <si>
-    <t>3. In the second Powershell window type the command to generate multiple connections simultaneously, refer to TC011, but do not run it</t>
-  </si>
-  <si>
-    <t>Testing is being done on Windows</t>
-  </si>
-  <si>
-    <t>Powershell 7 or higher is installed</t>
-  </si>
-  <si>
-    <t>Program has been downloaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preconditions: </t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment: </t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Program is downloaded and running in a command prompt</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows -  Received is misspelled in the the shutdown received response </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title: </t>
-  </si>
-  <si>
-    <t>Description:</t>
-  </si>
-  <si>
-    <t>Priority:</t>
-  </si>
-  <si>
-    <t>Severity:</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>Steps to Reproduce</t>
-  </si>
-  <si>
-    <t>Application to view TCP endpoints is installed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4 </t>
-  </si>
-  <si>
-    <t>Program is downloaded</t>
-  </si>
-  <si>
-    <t>3. Run the program from the command prompt
-For example:
-C:\broken-hashserve\broken-hashserve&gt;broken-hashserve_win.exe &lt;enter&gt;</t>
-  </si>
-  <si>
-    <t>1. Open a command prompt by searching for cmd on the PC
-2. In the command prompt navigate to the location of the downloaded program for Windows
-3. Run the program from the command prompt
-For example:
-C:\broken-hashserve\broken-hashserve&gt;broken-hashserve_win.exe &lt;enter&gt;</t>
-  </si>
-  <si>
-    <t>Program is started without error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malformed Input message is received upon program startup
-Note: program does successfully start </t>
-  </si>
-  <si>
-    <t>In command prompt running the program the user should see 
-Shutdown signal received
-Shutting down</t>
-  </si>
-  <si>
-    <t>In command prompt running the program the user sees:
-Malformed Input
-Shutdown signal received
-Shutting down</t>
-  </si>
-  <si>
-    <t>In command prompt running the program the user should see: 
-Shutdown signal received</t>
-  </si>
-  <si>
-    <t>This assumes the program including a 2 charater padding is OK</t>
-  </si>
-  <si>
-    <t>This assumes the user will know that on Windows they cannot use certain special characters such as / as it will return Malformed Input</t>
-  </si>
-  <si>
-    <t>This assumes that in Windows returning to the prompt without error is indicative of an empty response and the actual 200 is not displayed</t>
-  </si>
-  <si>
-    <t>1. In Powershell run the following command with a data input:
-curl -X POST -d 'shutdown' http://127.0.0.1:8088/hash
-2. Navigate to the command promt where the program is running</t>
-  </si>
-  <si>
-    <t>Windows -  Receving 'Malformed Input' response when starting the program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows -  Receving 'Malformed Input' response when stopping the program </t>
-  </si>
-  <si>
-    <t>In command prompt running the program the user sees:
-Shutdown signal recieved</t>
+@(curl -H "application/json" http://127.0.0.1:8088/hash/1 |
+curl -H "application/json" http://127.0.0.1:8088/hash/2 |
+curl -H "application/json" http://127.0.0.1:8088/hash/3 |
+curl -H "application/json" http://127.0.0.1:8088/hash/4)</t>
+  </si>
+  <si>
+    <t>Verify new job requests are rejected during shutdown</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>Verify in flight password hash requests complete before shutdown</t>
+  </si>
+  <si>
+    <t>3. In the second Powershell window type the command to generate multiple connections simultaneously, refer to TC012, but do not run it</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>Verify new password hash requests are rejected during shutdown</t>
+  </si>
+  <si>
+    <t>Homework2.ps1 Powershell script is available</t>
+  </si>
+  <si>
+    <t>Homework2.ps1 Powershell script requests 10 new password hashes, pauses for 2 seconds and requests an additional 10 new password hashes</t>
+  </si>
+  <si>
+    <t>4. Modify the Homework2.ps1 script to include the job ids generated in step 3</t>
+  </si>
+  <si>
+    <t>5. In the second Powershell window run the powershell script to generate multiple job requests
+./Homework2.ps1</t>
+  </si>
+  <si>
+    <t>6. In the second Powershell window run the command in step 5, wait 2 seconds and initiate the shutdown in the first Powershell window</t>
+  </si>
+  <si>
+    <t>7. Open application that gives a detailed listing of all TCP and UDP endpoints on your system, such as TCPViewer</t>
+  </si>
+  <si>
+    <t>6. Open application that gives a detailed listing of all TCP and UDP endpoints on your system, such as TCPViewer</t>
+  </si>
+  <si>
+    <t>10 connections to port 8088 with the same create time are visible</t>
   </si>
 </sst>
 </file>
@@ -451,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -474,11 +542,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -503,6 +584,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0A729C-0086-4D3F-973A-06DD22B84CCB}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -831,22 +916,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -856,11 +941,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B26663-15AA-4E68-857B-98221A6C2041}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -874,30 +959,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -908,10 +993,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -921,7 +1006,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -931,7 +1016,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -941,7 +1026,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -951,19 +1036,19 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -974,22 +1059,22 @@
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1000,16 +1085,16 @@
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1054,7 +1139,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
@@ -1068,22 +1153,22 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1094,10 +1179,10 @@
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1107,7 +1192,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1117,7 +1202,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1127,21 +1212,21 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1152,19 +1237,19 @@
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>1</v>
@@ -1178,10 +1263,10 @@
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1191,7 +1276,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1201,7 +1286,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1211,16 +1296,16 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>2</v>
@@ -1234,10 +1319,10 @@
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1247,7 +1332,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1257,7 +1342,7 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1267,19 +1352,19 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1290,22 +1375,22 @@
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1316,22 +1401,22 @@
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1342,10 +1427,10 @@
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1355,103 +1440,100 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="183.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1462,34 +1544,30 @@
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1499,22 +1577,301 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="3"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,76 +1896,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1618,76 +1975,76 @@
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1697,76 +2054,76 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
